--- a/app/Plantillas/Entrada/PRUEBA_numeros2.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_numeros2.xlsx
@@ -723,13 +723,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552D5BE1-886F-4A2E-809A-B34319945937}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B90639-A9FE-4851-A701-2DC28180A5B9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D9C3000-F46F-4556-A391-AF759198D4A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B128A80E-28CC-4CF6-A186-3A3E91D62961}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0E2724-77C3-40A9-AE07-F77EA78C52CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A16DA3CA-6482-4B7D-98FC-F5154FD17D84}"/>
 </file>
--- a/app/Plantillas/Entrada/PRUEBA_numeros2.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_numeros2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/juanse_barrios_urosario_edu_co/Documents/Prueba/PRUEBA.Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C87C6B67-4AAF-4A97-AD37-95921F2E6C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C87C6B67-4AAF-4A97-AD37-95921F2E6C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B699D42-A6D0-4F69-A697-B7A64B31B8F8}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="1860" windowWidth="10665" windowHeight="10410" xr2:uid="{30C27F74-BA03-4910-994B-00BAF57FA67E}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12150" windowHeight="11055" xr2:uid="{30C27F74-BA03-4910-994B-00BAF57FA67E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>edad</t>
+    <t>Fecha id</t>
   </si>
   <si>
-    <t>celular</t>
+    <t>Fecha Ig</t>
   </si>
 </sst>
 </file>
@@ -77,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C436F4-E743-4407-9411-075B011648CD}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,36 +431,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>25</v>
+      <c r="A2" s="1">
+        <v>43498</v>
       </c>
-      <c r="B2">
-        <v>3502399896</v>
+      <c r="B2" s="1">
+        <v>106056</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>635</v>
+      <c r="A3" s="1">
+        <v>43758</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9</v>
+      <c r="B3" s="1">
+        <v>43504</v>
       </c>
     </row>
   </sheetData>
@@ -723,13 +707,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B90639-A9FE-4851-A701-2DC28180A5B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB5B93DF-E711-4C8C-B7D2-86DE6FD9095D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B128A80E-28CC-4CF6-A186-3A3E91D62961}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D110BF6-F930-4909-9FF6-4DB190E457F3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A16DA3CA-6482-4B7D-98FC-F5154FD17D84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8459D492-8E79-4E2B-A096-D438C702C11F}"/>
 </file>